--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2004,7 +2004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
         <x:v>3</x:v>
@@ -2022,7 +2022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -5106,7 +5106,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
         <x:v>0</x:v>
@@ -5118,7 +5118,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>4</x:v>
@@ -5142,7 +5142,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -1977,7 +1977,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>0</x:v>
@@ -2004,7 +2004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
         <x:v>3</x:v>
@@ -2022,7 +2022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2134,7 +2134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O22" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P22" s="0" t="n">
         <x:v>0</x:v>
@@ -2152,7 +2152,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -3862,13 +3862,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>13</x:v>
@@ -3883,7 +3883,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>0</x:v>
@@ -3907,7 +3907,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -1939,7 +1939,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
         <x:v>1</x:v>
@@ -1957,7 +1957,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
@@ -2432,7 +2432,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>962</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>523</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3629</x:v>
+        <x:v>3632</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2302,7 +2302,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
@@ -2347,7 +2347,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>963</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2474,10 +2474,10 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3632</x:v>
+        <x:v>3630</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -4642,7 +4642,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>413</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4687,7 +4687,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>1123</x:v>
+        <x:v>1122</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2456,10 +2456,10 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3630</x:v>
+        <x:v>3636</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5319,7 +5319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>4</x:v>
@@ -5337,7 +5337,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -3342,7 +3342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3387,7 +3387,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2441,7 +2441,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3636</x:v>
+        <x:v>3635</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5422,7 +5422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5467,7 +5467,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2456,7 +2456,7 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
         <x:v>528</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3635</x:v>
+        <x:v>3634</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5617,7 +5617,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
@@ -5638,7 +5638,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
         <x:v>0</x:v>
@@ -5662,7 +5662,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -5942,7 +5942,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>0</x:v>
@@ -5987,7 +5987,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U81" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -3342,7 +3342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3387,7 +3387,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -5162,7 +5162,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
@@ -5189,7 +5189,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>2</x:v>
@@ -5201,13 +5201,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -1578,7 +1578,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>19</x:v>
@@ -1587,7 +1587,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
@@ -1614,7 +1614,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="O14" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P14" s="0" t="n">
         <x:v>2</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1847,7 +1847,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1</x:v>
@@ -1868,7 +1868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>3</x:v>
@@ -1886,13 +1886,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>528</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3634</x:v>
+        <x:v>3632</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4902,7 +4902,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4947,7 +4947,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2441,7 +2441,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3632</x:v>
+        <x:v>3629</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5189,7 +5189,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>2</x:v>
@@ -5207,7 +5207,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2004,7 +2004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
         <x:v>3</x:v>
@@ -2022,7 +2022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>962</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2441,7 +2441,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3629</x:v>
+        <x:v>3628</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4178,25 +4178,25 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4208,31 +4208,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>548</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>961</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2453,7 +2453,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>392</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>375</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3628</x:v>
+        <x:v>3625</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5812,7 +5812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
@@ -5857,7 +5857,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U79" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3625</x:v>
+        <x:v>3624</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5422,7 +5422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5467,7 +5467,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2420,7 +2420,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>270</x:v>
@@ -2429,7 +2429,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>960</x:v>
@@ -2441,7 +2441,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>391</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>524</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3624</x:v>
+        <x:v>3615</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3615</x:v>
+        <x:v>3614</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2438,10 +2438,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>389</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>522</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>372</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3614</x:v>
+        <x:v>3605</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4379,10 +4379,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>1</x:v>
@@ -4427,7 +4427,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2429,7 +2429,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>960</x:v>
@@ -2438,10 +2438,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>388</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3605</x:v>
+        <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -6034,7 +6034,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="O82" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P82" s="0" t="n">
         <x:v>1</x:v>
@@ -6052,7 +6052,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="U82" s="1" t="n">
-        <x:v>604</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2420,7 +2420,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>270</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>369</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3596</x:v>
+        <x:v>3593</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3593</x:v>
+        <x:v>3590</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -863,7 +863,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>2</x:v>
@@ -881,7 +881,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>4</x:v>
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3590</x:v>
+        <x:v>3591</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2063,7 +2063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2087,7 +2087,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3591</x:v>
+        <x:v>3589</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3589</x:v>
+        <x:v>3588</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3588</x:v>
+        <x:v>3586</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>961</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,10 +2474,10 @@
         <x:v>368</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3586</x:v>
+        <x:v>3582</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2420,7 +2420,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>270</x:v>
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3582</x:v>
+        <x:v>3579</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>245</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3579</x:v>
+        <x:v>3578</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>959</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3578</x:v>
+        <x:v>3577</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>958</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,10 +2474,10 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3577</x:v>
+        <x:v>3571</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -872,7 +872,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>1</x:v>
@@ -911,13 +911,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>637</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3571</x:v>
+        <x:v>3570</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2420,7 +2420,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>270</x:v>
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>956</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>385</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>509</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3570</x:v>
+        <x:v>3560</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2441,7 +2441,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>6</x:v>
@@ -2453,13 +2453,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>505</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>243</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3560</x:v>
+        <x:v>3553</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -4178,16 +4178,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4196,7 +4196,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4208,31 +4208,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>488</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2423,7 +2423,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>270</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>1</x:v>
@@ -2432,7 +2432,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>955</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2453,10 +2453,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>381</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
         <x:v>503</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3553</x:v>
+        <x:v>3567</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -872,7 +872,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>1</x:v>
@@ -881,7 +881,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>4</x:v>
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -872,7 +872,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>1</x:v>
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -917,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2423,16 +2423,16 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>958</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2459,7 +2459,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>244</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3567</x:v>
+        <x:v>3552</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -1933,7 +1933,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
         <x:v>7</x:v>
@@ -1957,7 +1957,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -4639,7 +4639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>412</x:v>
@@ -4669,7 +4669,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>7</x:v>
@@ -4687,7 +4687,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>1122</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -2432,7 +2432,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>954</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2453,7 +2453,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>51</x:v>
@@ -2471,13 +2471,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>244</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3552</x:v>
+        <x:v>3555</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -911,13 +911,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -379,7 +379,7 @@
     <x:t>113</x:t>
   </x:si>
   <x:si>
-    <x:t>954</x:t>
+    <x:t>953</x:t>
   </x:si>
   <x:si>
     <x:t>343</x:t>
@@ -391,7 +391,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>497</x:t>
+    <x:t>496</x:t>
   </x:si>
   <x:si>
     <x:t>366</x:t>
@@ -400,7 +400,7 @@
     <x:t>244</x:t>
   </x:si>
   <x:si>
-    <x:t>3553</x:t>
+    <x:t>3551</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -388,6 +388,9 @@
     <x:t>40</x:t>
   </x:si>
   <x:si>
+    <x:t>386</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
@@ -400,7 +403,7 @@
     <x:t>244</x:t>
   </x:si>
   <x:si>
-    <x:t>3551</x:t>
+    <x:t>3552</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -697,7 +700,7 @@
     <x:t>114</x:t>
   </x:si>
   <x:si>
-    <x:t>395</x:t>
+    <x:t>389</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -2891,13 +2894,13 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="N27" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>58</x:v>
@@ -2909,18 +2912,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>24</x:v>
@@ -2980,12 +2983,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -3000,7 +3003,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>24</x:v>
@@ -3021,7 +3024,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>24</x:v>
@@ -3045,12 +3048,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>22</x:v>
@@ -3110,12 +3113,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>24</x:v>
@@ -3151,7 +3154,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
         <x:v>36</x:v>
@@ -3175,12 +3178,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>22</x:v>
@@ -3245,7 +3248,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>24</x:v>
@@ -3287,7 +3290,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>24</x:v>
@@ -3310,7 +3313,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>24</x:v>
@@ -3325,7 +3328,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>24</x:v>
@@ -3346,13 +3349,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N34" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O34" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P34" s="0" t="s">
         <x:v>23</x:v>
@@ -3370,12 +3373,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>24</x:v>
@@ -3440,7 +3443,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>24</x:v>
@@ -3505,7 +3508,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>24</x:v>
@@ -3570,7 +3573,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>24</x:v>
@@ -3635,7 +3638,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>24</x:v>
@@ -3695,12 +3698,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>24</x:v>
@@ -3765,7 +3768,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>24</x:v>
@@ -3825,12 +3828,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -3895,7 +3898,7 @@
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>24</x:v>
@@ -3960,7 +3963,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>24</x:v>
@@ -3996,7 +3999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>24</x:v>
@@ -4020,12 +4023,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>24</x:v>
@@ -4040,7 +4043,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>24</x:v>
@@ -4085,12 +4088,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>24</x:v>
@@ -4126,7 +4129,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>24</x:v>
@@ -4150,12 +4153,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>24</x:v>
@@ -4191,13 +4194,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P47" s="0" t="s">
         <x:v>22</x:v>
@@ -4215,12 +4218,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>24</x:v>
@@ -4262,7 +4265,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="P48" s="0" t="s">
         <x:v>24</x:v>
@@ -4280,12 +4283,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>24</x:v>
@@ -4327,7 +4330,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
         <x:v>24</x:v>
@@ -4345,12 +4348,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>24</x:v>
@@ -4415,7 +4418,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>24</x:v>
@@ -4480,7 +4483,7 @@
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>46</x:v>
@@ -4516,7 +4519,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>46</x:v>
@@ -4540,12 +4543,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>24</x:v>
@@ -4610,7 +4613,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>27</x:v>
@@ -4625,7 +4628,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>24</x:v>
@@ -4646,13 +4649,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>36</x:v>
@@ -4664,18 +4667,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S54" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T54" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>24</x:v>
@@ -4735,12 +4738,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>24</x:v>
@@ -4800,12 +4803,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>24</x:v>
@@ -4820,7 +4823,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>22</x:v>
@@ -4841,7 +4844,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>24</x:v>
@@ -4865,12 +4868,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>24</x:v>
@@ -4935,7 +4938,7 @@
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>24</x:v>
@@ -4950,7 +4953,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
         <x:v>24</x:v>
@@ -4971,7 +4974,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>46</x:v>
@@ -4995,12 +4998,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U59" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>24</x:v>
@@ -5065,22 +5068,22 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>24</x:v>
@@ -5089,7 +5092,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
         <x:v>23</x:v>
@@ -5101,13 +5104,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
         <x:v>62</x:v>
@@ -5119,18 +5122,18 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="S61" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="T61" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5195,7 +5198,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5260,7 +5263,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>24</x:v>
@@ -5320,12 +5323,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5340,7 +5343,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>24</x:v>
@@ -5361,7 +5364,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>22</x:v>
@@ -5385,12 +5388,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>24</x:v>
@@ -5455,7 +5458,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>24</x:v>
@@ -5515,12 +5518,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>22</x:v>
@@ -5535,7 +5538,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>24</x:v>
@@ -5556,7 +5559,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>23</x:v>
@@ -5580,12 +5583,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>22</x:v>
@@ -5600,7 +5603,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>24</x:v>
@@ -5645,12 +5648,12 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>24</x:v>
@@ -5710,12 +5713,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>24</x:v>
@@ -5727,10 +5730,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>24</x:v>
@@ -5751,13 +5754,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="N71" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O71" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P71" s="0" t="s">
         <x:v>23</x:v>
@@ -5775,12 +5778,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5795,7 +5798,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>25</x:v>
@@ -5822,7 +5825,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="P72" s="0" t="s">
         <x:v>27</x:v>
@@ -5840,12 +5843,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>24</x:v>
@@ -5860,7 +5863,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
         <x:v>24</x:v>
@@ -5905,12 +5908,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U73" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>24</x:v>
@@ -5975,7 +5978,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>24</x:v>
@@ -6040,7 +6043,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>24</x:v>
@@ -6055,7 +6058,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>24</x:v>
@@ -6100,12 +6103,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>24</x:v>
@@ -6170,7 +6173,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>24</x:v>
@@ -6235,7 +6238,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>24</x:v>
@@ -6300,7 +6303,7 @@
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>24</x:v>
@@ -6315,7 +6318,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>24</x:v>
@@ -6360,18 +6363,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
         <x:v>46</x:v>
@@ -6380,7 +6383,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>24</x:v>
@@ -6401,7 +6404,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>42</x:v>
@@ -6419,18 +6422,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S81" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="T81" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">
       <x:c r="A82" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>24</x:v>
@@ -6445,7 +6448,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
         <x:v>24</x:v>
@@ -6490,12 +6493,12 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="U82" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:21">
       <x:c r="A83" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>24</x:v>
@@ -6510,7 +6513,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
         <x:v>24</x:v>
@@ -6560,7 +6563,7 @@
     </x:row>
     <x:row r="84" spans="1:21">
       <x:c r="A84" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>24</x:v>
@@ -6575,7 +6578,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>24</x:v>
@@ -6596,7 +6599,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M84" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
         <x:v>24</x:v>
@@ -6620,12 +6623,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U84" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>25</x:v>
@@ -6640,7 +6643,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>24</x:v>
@@ -6661,7 +6664,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="M85" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N85" s="0" t="s">
         <x:v>25</x:v>
@@ -6679,18 +6682,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S85" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="T85" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="U85" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -6729,7 +6729,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M86" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N86" s="0" t="s">
         <x:v>24</x:v>
@@ -6753,7 +6753,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U86" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -373,13 +373,13 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>269</x:t>
+    <x:t>272</x:t>
   </x:si>
   <x:si>
     <x:t>113</x:t>
   </x:si>
   <x:si>
-    <x:t>953</x:t>
+    <x:t>956</x:t>
   </x:si>
   <x:si>
     <x:t>343</x:t>
@@ -394,7 +394,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>496</x:t>
+    <x:t>499</x:t>
   </x:si>
   <x:si>
     <x:t>366</x:t>
@@ -403,7 +403,7 @@
     <x:t>244</x:t>
   </x:si>
   <x:si>
-    <x:t>3552</x:t>
+    <x:t>3561</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -118,7 +118,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>200</x:t>
+    <x:t>199</x:t>
   </x:si>
   <x:si>
     <x:t>39</x:t>
@@ -136,7 +136,7 @@
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>629</x:t>
+    <x:t>628</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -373,7 +373,7 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>272</x:t>
+    <x:t>271</x:t>
   </x:si>
   <x:si>
     <x:t>113</x:t>
@@ -382,7 +382,7 @@
     <x:t>956</x:t>
   </x:si>
   <x:si>
-    <x:t>343</x:t>
+    <x:t>341</x:t>
   </x:si>
   <x:si>
     <x:t>40</x:t>
@@ -394,7 +394,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>499</x:t>
+    <x:t>496</x:t>
   </x:si>
   <x:si>
     <x:t>366</x:t>
@@ -403,7 +403,7 @@
     <x:t>244</x:t>
   </x:si>
   <x:si>
-    <x:t>3561</x:t>
+    <x:t>3555</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -268,99 +268,102 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
     <x:t>55</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
     <x:t>176</x:t>
   </x:si>
   <x:si>
@@ -431,9 +434,6 @@
   </x:si>
   <x:si>
     <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
@@ -2764,7 +2764,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>24</x:v>
@@ -2788,12 +2788,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>24</x:v>
@@ -2858,22 +2858,22 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>27</x:v>
@@ -2882,7 +2882,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>32</x:v>
@@ -2891,16 +2891,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="N27" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>58</x:v>
@@ -2912,18 +2912,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>24</x:v>
@@ -2983,12 +2983,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -3003,7 +3003,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>24</x:v>
@@ -3024,7 +3024,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>24</x:v>
@@ -3048,12 +3048,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>22</x:v>
@@ -3113,12 +3113,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>24</x:v>
@@ -3154,7 +3154,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
         <x:v>36</x:v>
@@ -4844,7 +4844,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>24</x:v>
@@ -5074,7 +5074,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>24</x:v>
@@ -5518,7 +5518,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5863,7 +5863,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -397,7 +397,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>496</x:t>
+    <x:t>498</x:t>
   </x:si>
   <x:si>
     <x:t>366</x:t>
@@ -406,7 +406,7 @@
     <x:t>244</x:t>
   </x:si>
   <x:si>
-    <x:t>3555</x:t>
+    <x:t>3557</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -748,7 +748,7 @@
     <x:t>221</x:t>
   </x:si>
   <x:si>
-    <x:t>603</x:t>
+    <x:t>602</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -6410,7 +6410,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -376,13 +376,13 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>956</x:t>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>957</x:t>
   </x:si>
   <x:si>
     <x:t>341</x:t>
@@ -403,10 +403,10 @@
     <x:t>366</x:t>
   </x:si>
   <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3557</x:t>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3561</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -697,9 +697,6 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
     <x:t>389</x:t>
   </x:si>
   <x:si>
@@ -748,7 +745,10 @@
     <x:t>221</x:t>
   </x:si>
   <x:si>
-    <x:t>602</x:t>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -5733,7 +5733,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>24</x:v>
@@ -5778,12 +5778,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5798,7 +5798,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>25</x:v>
@@ -5825,7 +5825,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P72" s="0" t="s">
         <x:v>27</x:v>
@@ -5843,12 +5843,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>24</x:v>
@@ -5913,7 +5913,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>24</x:v>
@@ -5978,7 +5978,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>24</x:v>
@@ -6043,22 +6043,22 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
         <x:v>236</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C76" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D76" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E76" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F76" s="0" t="s">
-        <x:v>237</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>24</x:v>
@@ -6108,7 +6108,7 @@
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>24</x:v>
@@ -6173,7 +6173,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>24</x:v>
@@ -6238,7 +6238,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>24</x:v>
@@ -6303,7 +6303,7 @@
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>24</x:v>
@@ -6368,7 +6368,7 @@
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>32</x:v>
@@ -6383,7 +6383,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>24</x:v>
@@ -6404,13 +6404,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -745,10 +745,10 @@
     <x:t>221</x:t>
   </x:si>
   <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>600</x:t>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>598</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -761,9 +761,6 @@
   </x:si>
   <x:si>
     <x:t>Winona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
   </x:si>
   <x:si>
     <x:t>Wright</x:t>
@@ -6374,7 +6371,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
         <x:v>46</x:v>
@@ -6623,12 +6620,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U84" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>25</x:v>
@@ -6643,7 +6640,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>24</x:v>
@@ -6688,12 +6685,12 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="U85" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -118,7 +118,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>199</x:t>
+    <x:t>198</x:t>
   </x:si>
   <x:si>
     <x:t>39</x:t>
@@ -127,7 +127,7 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>233</x:t>
+    <x:t>231</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -136,7 +136,7 @@
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>628</x:t>
+    <x:t>625</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -127,7 +127,7 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>231</x:t>
+    <x:t>232</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -136,7 +136,7 @@
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>625</x:t>
+    <x:t>626</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -259,220 +259,220 @@
     <x:t>Clay</x:t>
   </x:si>
   <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
     <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>957</x:t>
-  </x:si>
-  <x:si>
-    <x:t>341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>498</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
   </x:si>
   <x:si>
     <x:t>Le Sueur</x:t>
@@ -2324,42 +2324,42 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="T18" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>99</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>24</x:v>
@@ -2392,15 +2392,15 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="T19" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="U19" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="U19" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>24</x:v>
@@ -2460,12 +2460,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>32</x:v>
@@ -2480,7 +2480,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
         <x:v>24</x:v>
@@ -2525,12 +2525,12 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="U21" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>24</x:v>
@@ -2595,7 +2595,7 @@
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>24</x:v>
@@ -2660,22 +2660,22 @@
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>24</x:v>
@@ -2720,12 +2720,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>25</x:v>
@@ -2740,7 +2740,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>24</x:v>
@@ -2761,7 +2761,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>24</x:v>
@@ -2785,12 +2785,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>24</x:v>
@@ -2855,22 +2855,22 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="D27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
+      <x:c r="F27" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>27</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>32</x:v>
@@ -2888,16 +2888,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="M27" s="0" t="s">
+      <x:c r="N27" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="N27" s="0" t="s">
+      <x:c r="O27" s="0" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="O27" s="0" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>58</x:v>
@@ -2909,18 +2909,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="T27" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="T27" s="0" t="s">
+      <x:c r="U27" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="U27" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>24</x:v>
@@ -2980,12 +2980,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -3000,7 +3000,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>24</x:v>
@@ -3021,7 +3021,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>24</x:v>
@@ -3045,12 +3045,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>22</x:v>
@@ -3110,12 +3110,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>24</x:v>
@@ -3130,7 +3130,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>24</x:v>
@@ -3169,18 +3169,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S31" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="T31" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>22</x:v>
@@ -3245,49 +3245,49 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L33" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O33" s="0" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>24</x:v>
@@ -3310,7 +3310,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>24</x:v>
@@ -3325,7 +3325,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>24</x:v>
@@ -3334,7 +3334,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
         <x:v>32</x:v>
@@ -3346,13 +3346,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="N34" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O34" s="0" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="P34" s="0" t="s">
         <x:v>23</x:v>
@@ -3370,12 +3370,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>24</x:v>
@@ -3440,7 +3440,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>24</x:v>
@@ -3455,7 +3455,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>24</x:v>
@@ -3505,7 +3505,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>24</x:v>
@@ -3570,7 +3570,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>24</x:v>
@@ -3630,7 +3630,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -4014,7 +4014,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="T44" s="0" t="s">
         <x:v>24</x:v>
@@ -4209,7 +4209,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S47" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="T47" s="0" t="s">
         <x:v>32</x:v>
@@ -4475,7 +4475,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4634,7 +4634,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
         <x:v>24</x:v>
@@ -4643,7 +4643,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="L54" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
         <x:v>161</x:v>
@@ -4667,7 +4667,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="T54" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
         <x:v>188</x:v>
@@ -4711,7 +4711,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N55" s="0" t="s">
         <x:v>22</x:v>
@@ -4885,7 +4885,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>24</x:v>
@@ -5068,10 +5068,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>24</x:v>
@@ -5098,7 +5098,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L61" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
         <x:v>205</x:v>
@@ -5210,7 +5210,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>24</x:v>
@@ -5237,7 +5237,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
         <x:v>24</x:v>
@@ -5515,7 +5515,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5544,7 +5544,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>24</x:v>
@@ -5571,10 +5571,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="R68" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>36</x:v>
@@ -5627,7 +5627,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>25</x:v>
@@ -5639,7 +5639,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S69" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="T69" s="0" t="s">
         <x:v>47</x:v>
@@ -5686,7 +5686,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
         <x:v>24</x:v>
@@ -5710,7 +5710,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5730,7 +5730,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>24</x:v>
@@ -5792,7 +5792,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
         <x:v>229</x:v>
@@ -5860,7 +5860,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
         <x:v>24</x:v>
@@ -5970,7 +5970,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -6100,7 +6100,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -6336,7 +6336,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>24</x:v>
@@ -6360,7 +6360,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
@@ -6398,7 +6398,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="L81" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
         <x:v>243</x:v>
@@ -6445,7 +6445,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
         <x:v>24</x:v>
@@ -6555,7 +6555,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U83" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2022.xlsx
@@ -373,330 +373,333 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>272</x:t>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3565</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
     <x:t>114</x:t>
   </x:si>
   <x:si>
-    <x:t>957</x:t>
-  </x:si>
-  <x:si>
-    <x:t>341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>498</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
     <x:t>389</x:t>
   </x:si>
   <x:si>
@@ -745,22 +748,25 @@
     <x:t>221</x:t>
   </x:si>
   <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona</x:t>
+  </x:si>
+  <x:si>
     <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona</x:t>
   </x:si>
   <x:si>
     <x:t>Wright</x:t>
@@ -5730,7 +5736,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>24</x:v>
@@ -5775,12 +5781,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5795,7 +5801,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>25</x:v>
@@ -5822,7 +5828,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="P72" s="0" t="s">
         <x:v>27</x:v>
@@ -5840,12 +5846,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>24</x:v>
@@ -5910,7 +5916,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>24</x:v>
@@ -5975,7 +5981,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>24</x:v>
@@ -6040,7 +6046,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>24</x:v>
@@ -6055,7 +6061,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>24</x:v>
@@ -6105,7 +6111,7 @@
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>24</x:v>
@@ -6170,7 +6176,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>24</x:v>
@@ -6235,7 +6241,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>24</x:v>
@@ -6300,7 +6306,7 @@
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>24</x:v>
@@ -6365,7 +6371,7 @@
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>32</x:v>
@@ -6377,10 +6383,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>24</x:v>
@@ -6401,7 +6407,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>42</x:v>
@@ -6425,12 +6431,12 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">
       <x:c r="A82" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>24</x:v>
@@ -6490,12 +6496,12 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="U82" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:21">
       <x:c r="A83" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>24</x:v>
@@ -6560,7 +6566,7 @@
     </x:row>
     <x:row r="84" spans="1:21">
       <x:c r="A84" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>24</x:v>
@@ -6620,12 +6626,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U84" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>25</x:v>
@@ -6640,7 +6646,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>24</x:v>
@@ -6685,12 +6691,12 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="U85" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>24</x:v>
